--- a/接口文档/用户api/用户微信登录接口文档-移动端.xlsx
+++ b/接口文档/用户api/用户微信登录接口文档-移动端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9945" tabRatio="802" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9945" tabRatio="802" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -84,14 +84,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.131/api/useredit/user_login/redirectWechatAuth</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.131/api/useredit/user_login/saveWechatUserByCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -130,6 +122,14 @@
   </si>
   <si>
     <t>回调地址：http://weixin.appcan.cn/ec/html/home/RecentPlaces.html</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.131/api/useredit/user_login/nologin/redirectWechatAuth</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.131/api/useredit/user_login/nologin/saveWechatUserByCode</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -505,9 +505,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,6 +557,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1136,34 +1136,34 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15">
       <c r="A1" s="9"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="23" t="s">
@@ -1185,7 +1185,7 @@
     <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>8</v>
@@ -1194,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
@@ -1208,12 +1208,12 @@
       <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1">
       <c r="A8" s="24"/>
@@ -1231,12 +1231,12 @@
     </row>
     <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="24"/>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="24"/>
@@ -1256,7 +1256,7 @@
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="24"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>8</v>
@@ -1265,13 +1265,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>8</v>
@@ -1280,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
@@ -1288,27 +1288,27 @@
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="1:5" ht="14.25">
       <c r="B18" s="12"/>
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1427,34 +1427,34 @@
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="23" t="s">
@@ -1476,7 +1476,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="24"/>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1499,7 +1499,7 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
@@ -1507,12 +1507,12 @@
       <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" ht="18.95" customHeight="1">
       <c r="A10" s="24"/>
@@ -1524,17 +1524,17 @@
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="24"/>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1551,32 +1551,32 @@
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="25"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="7"/>
       <c r="E15" s="6"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="7"/>

--- a/接口文档/用户api/用户微信登录接口文档-移动端.xlsx
+++ b/接口文档/用户api/用户微信登录接口文档-移动端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9945" tabRatio="802" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9945" tabRatio="802" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>用户接口
 版本：1.0
 作者：王金广
@@ -130,6 +126,10 @@
   </si>
   <si>
     <t>http://192.168.1.131/api/useredit/user_login/nologin/saveWechatUserByCode</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +875,7 @@
   <sheetData>
     <row r="7" spans="7:14">
       <c r="G7" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1120,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -1185,7 +1185,7 @@
     <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>8</v>
@@ -1194,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
@@ -1256,7 +1256,7 @@
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="24"/>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>8</v>
@@ -1265,13 +1265,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>8</v>
@@ -1280,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -1476,7 +1476,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="24"/>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1534,7 +1534,7 @@
     <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="24"/>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5">

--- a/接口文档/用户api/用户微信登录接口文档-移动端.xlsx
+++ b/接口文档/用户api/用户微信登录接口文档-移动端.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9945" tabRatio="802" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="21495" windowHeight="9915" tabRatio="802" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="目录" sheetId="2" r:id="rId2"/>
-    <sheet name="新增微信用户" sheetId="3" r:id="rId3"/>
-    <sheet name="获取微信的认证授权码接口" sheetId="4" r:id="rId4"/>
+    <sheet name="获取微信的认证授权码接口" sheetId="4" r:id="rId3"/>
+    <sheet name="获取微信用户" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t xml:space="preserve">登录接口
 </t>
@@ -121,15 +121,23 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>GET</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> versionId</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>http://192.168.1.131/api/useredit/user_login/nologin/redirectWechatAuth</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.1.131/api/useredit/user_login/nologin/saveWechatUserByCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1118,9 +1126,295 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="24"/>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="21" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="24"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="43"/>
+      <c r="B15" s="7"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="7"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="7"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="7"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="7"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="7"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="25.5" customHeight="1">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" customHeight="1">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" customHeight="1">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A19:E21"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A19:E21" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
@@ -1148,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -1199,10 +1493,18 @@
     </row>
     <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="24"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="23" t="s">
@@ -1403,280 +1705,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="24"/>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="24"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="24"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="43"/>
-      <c r="B15" s="7"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22" s="7"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="7"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="7"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="7"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="7"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" customHeight="1">
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" ht="21" customHeight="1">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A19:E21"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B12:E12"/>
-  </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A19:E21" location="目录!A1" display="返回目录"/>
-  </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>